--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.255482</v>
+        <v>0.534932</v>
       </c>
       <c r="N2">
-        <v>0.510964</v>
+        <v>1.069864</v>
       </c>
       <c r="O2">
-        <v>0.03385952189990702</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P2">
-        <v>0.02768247599107402</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q2">
-        <v>10.407047901051</v>
+        <v>14.466556041428</v>
       </c>
       <c r="R2">
-        <v>41.62819160420401</v>
+        <v>57.86622416571199</v>
       </c>
       <c r="S2">
-        <v>0.001885254786321473</v>
+        <v>0.001861671048703343</v>
       </c>
       <c r="T2">
-        <v>0.00105931613641696</v>
+        <v>0.001064701795229704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.193125999999999</v>
       </c>
       <c r="O3">
-        <v>0.3619502603258385</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P3">
-        <v>0.4438786563962321</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q3">
-        <v>111.248874338631</v>
+        <v>73.857559735618</v>
       </c>
       <c r="R3">
-        <v>667.493246031786</v>
+        <v>443.145358413708</v>
       </c>
       <c r="S3">
-        <v>0.02015292663336348</v>
+        <v>0.009504575953939706</v>
       </c>
       <c r="T3">
-        <v>0.01698575746920985</v>
+        <v>0.008153593317228326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.164664</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N4">
-        <v>0.493992</v>
+        <v>0.032909</v>
       </c>
       <c r="O4">
-        <v>0.02182323730879784</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P4">
-        <v>0.02676298463254288</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q4">
-        <v>6.707580712452001</v>
+        <v>0.2966606925536667</v>
       </c>
       <c r="R4">
-        <v>40.24548427471201</v>
+        <v>1.779964155322</v>
       </c>
       <c r="S4">
-        <v>0.001215089885529467</v>
+        <v>3.817664833522661E-05</v>
       </c>
       <c r="T4">
-        <v>0.001024130265265042</v>
+        <v>3.275021066155544E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.922542</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N5">
-        <v>7.845084</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O5">
-        <v>0.5198620519344028</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P5">
-        <v>0.4250227990190287</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q5">
-        <v>159.784573816881</v>
+        <v>116.382822970145</v>
       </c>
       <c r="R5">
-        <v>639.1382952675241</v>
+        <v>465.5312918805799</v>
       </c>
       <c r="S5">
-        <v>0.02894525281642936</v>
+        <v>0.01497706375100028</v>
       </c>
       <c r="T5">
-        <v>0.01626420662267109</v>
+        <v>0.008565480283998729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4184600000000001</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N6">
-        <v>1.25538</v>
+        <v>0.114962</v>
       </c>
       <c r="O6">
-        <v>0.05545931037895075</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P6">
-        <v>0.06801267155743754</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q6">
-        <v>17.04594947853001</v>
+        <v>1.036333724432666</v>
       </c>
       <c r="R6">
-        <v>102.27569687118</v>
+        <v>6.218002346595999</v>
       </c>
       <c r="S6">
-        <v>0.003087903327373686</v>
+        <v>0.0001333636344439005</v>
       </c>
       <c r="T6">
-        <v>0.002602618367116125</v>
+        <v>0.0001144072964257114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>1051.17572</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05316166666666666</v>
+        <v>0.534932</v>
       </c>
       <c r="N7">
-        <v>0.159485</v>
+        <v>1.069864</v>
       </c>
       <c r="O7">
-        <v>0.007045618152102915</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P7">
-        <v>0.008640412403684879</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q7">
-        <v>2.1655381259725</v>
+        <v>187.4358434170133</v>
       </c>
       <c r="R7">
-        <v>12.993228755835</v>
+        <v>1124.61506050208</v>
       </c>
       <c r="S7">
-        <v>0.0003922909893149422</v>
+        <v>0.02412072936913756</v>
       </c>
       <c r="T7">
-        <v>0.0003306397985307357</v>
+        <v>0.02069220328649716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.255482</v>
+        <v>2.731042</v>
       </c>
       <c r="N8">
-        <v>0.510964</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O8">
-        <v>0.03385952189990702</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P8">
-        <v>0.02768247599107402</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q8">
-        <v>89.51882509901333</v>
+        <v>956.9350135667466</v>
       </c>
       <c r="R8">
-        <v>537.11295059408</v>
+        <v>8612.41512210072</v>
       </c>
       <c r="S8">
-        <v>0.01621649050608734</v>
+        <v>0.1231459792604447</v>
       </c>
       <c r="T8">
-        <v>0.01366795898924839</v>
+        <v>0.1584629716897524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.731042</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N9">
-        <v>8.193125999999999</v>
+        <v>0.032909</v>
       </c>
       <c r="O9">
-        <v>0.3619502603258385</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P9">
-        <v>0.4438786563962321</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q9">
-        <v>956.9350135667466</v>
+        <v>3.843682418831111</v>
       </c>
       <c r="R9">
-        <v>8612.41512210072</v>
+        <v>34.59314176948</v>
       </c>
       <c r="S9">
-        <v>0.1733504382489795</v>
+        <v>0.0004946355068238881</v>
       </c>
       <c r="T9">
-        <v>0.2191608609642649</v>
+        <v>0.0006364918512589778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.164664</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N10">
-        <v>0.493992</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O10">
-        <v>0.02182323730879784</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P10">
-        <v>0.02676298463254288</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q10">
-        <v>57.69693291936</v>
+        <v>1507.913322299533</v>
       </c>
       <c r="R10">
-        <v>519.27239627424</v>
+        <v>9047.479933797198</v>
       </c>
       <c r="S10">
-        <v>0.01045189951814361</v>
+        <v>0.1940502333824306</v>
       </c>
       <c r="T10">
-        <v>0.01321396888433782</v>
+        <v>0.1664678880763479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>3.922542</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N11">
-        <v>7.845084</v>
+        <v>0.114962</v>
       </c>
       <c r="O11">
-        <v>0.5198620519344028</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P11">
-        <v>0.4250227990190287</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q11">
-        <v>1374.42697036008</v>
+        <v>13.42725145807111</v>
       </c>
       <c r="R11">
-        <v>8246.56182216048</v>
+        <v>120.84526312264</v>
       </c>
       <c r="S11">
-        <v>0.2489798306836836</v>
+        <v>0.001727925100595211</v>
       </c>
       <c r="T11">
-        <v>0.2098509608880639</v>
+        <v>0.002223476137361652</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>350.3919066666667</v>
+        <v>384.09258</v>
       </c>
       <c r="H12">
-        <v>1051.17572</v>
+        <v>1152.27774</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4184600000000001</v>
+        <v>0.534932</v>
       </c>
       <c r="N12">
-        <v>1.25538</v>
+        <v>1.069864</v>
       </c>
       <c r="O12">
-        <v>0.05545931037895075</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P12">
-        <v>0.06801267155743754</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q12">
-        <v>146.6249972637333</v>
+        <v>205.46341200456</v>
       </c>
       <c r="R12">
-        <v>1319.6249753736</v>
+        <v>1232.78047202736</v>
       </c>
       <c r="S12">
-        <v>0.02656137268839805</v>
+        <v>0.02644065972587481</v>
       </c>
       <c r="T12">
-        <v>0.03358060911516788</v>
+        <v>0.0226823782027476</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>350.3919066666667</v>
+        <v>384.09258</v>
       </c>
       <c r="H13">
-        <v>1051.17572</v>
+        <v>1152.27774</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05316166666666666</v>
+        <v>2.731042</v>
       </c>
       <c r="N13">
-        <v>0.159485</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O13">
-        <v>0.007045618152102915</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P13">
-        <v>0.008640412403684879</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q13">
-        <v>18.62741774491111</v>
+        <v>1048.97296786836</v>
       </c>
       <c r="R13">
-        <v>167.6467597042</v>
+        <v>9440.75671081524</v>
       </c>
       <c r="S13">
-        <v>0.003374389048104289</v>
+        <v>0.1349901524288556</v>
       </c>
       <c r="T13">
-        <v>0.004266121369412089</v>
+        <v>0.1737039311489728</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.255482</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N14">
-        <v>0.510964</v>
+        <v>0.032909</v>
       </c>
       <c r="O14">
-        <v>0.03385952189990702</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P14">
-        <v>0.02768247599107402</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q14">
-        <v>62.29384478500667</v>
+        <v>4.21336757174</v>
       </c>
       <c r="R14">
-        <v>373.76306871004</v>
+        <v>37.92030814566</v>
       </c>
       <c r="S14">
-        <v>0.01128463807949232</v>
+        <v>0.0005422095212842095</v>
       </c>
       <c r="T14">
-        <v>0.009511180635607559</v>
+        <v>0.0006977096007288973</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.731042</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N15">
-        <v>8.193125999999999</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O15">
-        <v>0.3619502603258385</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P15">
-        <v>0.4438786563962321</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q15">
-        <v>665.9064296088734</v>
+        <v>1652.9443384929</v>
       </c>
       <c r="R15">
-        <v>5993.15786647986</v>
+        <v>9917.666030957398</v>
       </c>
       <c r="S15">
-        <v>0.1206301052516141</v>
+        <v>0.2127139736145919</v>
       </c>
       <c r="T15">
-        <v>0.1525083985491988</v>
+        <v>0.1824787599310105</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.164664</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N16">
-        <v>0.493992</v>
+        <v>0.114962</v>
       </c>
       <c r="O16">
-        <v>0.02182323730879784</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P16">
-        <v>0.02676298463254288</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q16">
-        <v>40.14980960568001</v>
+        <v>14.71868372732</v>
       </c>
       <c r="R16">
-        <v>361.34828645112</v>
+        <v>132.46815354588</v>
       </c>
       <c r="S16">
-        <v>0.007273207680860195</v>
+        <v>0.001894116836910124</v>
       </c>
       <c r="T16">
-        <v>0.009195260614338875</v>
+        <v>0.002437329943753851</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>16.362698</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>32.725396</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.922542</v>
+        <v>0.534932</v>
       </c>
       <c r="N17">
-        <v>7.845084</v>
+        <v>1.069864</v>
       </c>
       <c r="O17">
-        <v>0.5198620519344028</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P17">
-        <v>0.4250227990190287</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q17">
-        <v>956.42832963054</v>
+        <v>8.752930766536</v>
       </c>
       <c r="R17">
-        <v>5738.569977783241</v>
+        <v>35.011723066144</v>
       </c>
       <c r="S17">
-        <v>0.1732586515747019</v>
+        <v>0.001126396479763427</v>
       </c>
       <c r="T17">
-        <v>0.1460298788672288</v>
+        <v>0.0006441934814315546</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>16.362698</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>32.725396</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,60 +1553,60 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.4184600000000001</v>
+        <v>2.731042</v>
       </c>
       <c r="N18">
-        <v>1.25538</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O18">
-        <v>0.05545931037895075</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P18">
-        <v>0.06801267155743754</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q18">
-        <v>102.0325591968667</v>
+        <v>44.687215471316</v>
       </c>
       <c r="R18">
-        <v>918.2930327718002</v>
+        <v>268.123292827896</v>
       </c>
       <c r="S18">
-        <v>0.01848337515263055</v>
+        <v>0.005750704939854166</v>
       </c>
       <c r="T18">
-        <v>0.02336788099813102</v>
+        <v>0.004933298402177648</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>16.362698</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>32.725396</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.05316166666666666</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N19">
-        <v>0.159485</v>
+        <v>0.032909</v>
       </c>
       <c r="O19">
-        <v>0.007045618152102915</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P19">
-        <v>0.008640412403684879</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q19">
-        <v>12.96234025037222</v>
+        <v>0.1794933428273334</v>
       </c>
       <c r="R19">
-        <v>116.66106225335</v>
+        <v>1.076960056964</v>
       </c>
       <c r="S19">
-        <v>0.00234815042952515</v>
+        <v>2.30986254655013E-05</v>
       </c>
       <c r="T19">
-        <v>0.002968683984918451</v>
+        <v>1.981538146944942E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.255482</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N20">
-        <v>0.510964</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O20">
-        <v>0.03385952189990702</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P20">
-        <v>0.02768247599107402</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q20">
-        <v>6.408086132397999</v>
+        <v>70.41695265649</v>
       </c>
       <c r="R20">
-        <v>25.632344529592</v>
+        <v>281.66781062596</v>
       </c>
       <c r="S20">
-        <v>0.001160835922648492</v>
+        <v>0.009061811375360431</v>
       </c>
       <c r="T20">
-        <v>0.0006522684538536055</v>
+        <v>0.005182508932552366</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.731042</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N21">
-        <v>8.193125999999999</v>
+        <v>0.114962</v>
       </c>
       <c r="O21">
-        <v>0.3619502603258385</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P21">
-        <v>0.4438786563962321</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q21">
-        <v>68.500921267238</v>
+        <v>0.6270294958253333</v>
       </c>
       <c r="R21">
-        <v>411.0055276034279</v>
+        <v>3.762176974952</v>
       </c>
       <c r="S21">
-        <v>0.01240906075520695</v>
+        <v>8.069112342413806E-05</v>
       </c>
       <c r="T21">
-        <v>0.01045889265828468</v>
+        <v>6.922166837311507E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.164664</v>
+        <v>0.534932</v>
       </c>
       <c r="N22">
-        <v>0.493992</v>
+        <v>1.069864</v>
       </c>
       <c r="O22">
-        <v>0.02182323730879784</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P22">
-        <v>0.02676298463254288</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q22">
-        <v>4.130158269095999</v>
+        <v>23.27193332435066</v>
       </c>
       <c r="R22">
-        <v>24.780949614576</v>
+        <v>139.631599946104</v>
       </c>
       <c r="S22">
-        <v>0.0007481853373896841</v>
+        <v>0.002994816761724692</v>
       </c>
       <c r="T22">
-        <v>0.0006306029349544201</v>
+        <v>0.002569132810664761</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.922542</v>
+        <v>2.731042</v>
       </c>
       <c r="N23">
-        <v>7.845084</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O23">
-        <v>0.5198620519344028</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P23">
-        <v>0.4250227990190287</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q23">
-        <v>98.38652818573799</v>
+        <v>118.8125356680873</v>
       </c>
       <c r="R23">
-        <v>393.5461127429519</v>
+        <v>1069.312821012786</v>
       </c>
       <c r="S23">
-        <v>0.01782289030811353</v>
+        <v>0.01528973843137843</v>
       </c>
       <c r="T23">
-        <v>0.0100146014416508</v>
+        <v>0.01967467718187595</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.4184600000000001</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N24">
-        <v>1.25538</v>
+        <v>0.032909</v>
       </c>
       <c r="O24">
-        <v>0.05545931037895075</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P24">
-        <v>0.06801267155743754</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q24">
-        <v>10.49595557794</v>
+        <v>0.4772295380665555</v>
       </c>
       <c r="R24">
-        <v>62.97573346764</v>
+        <v>4.295065842599</v>
       </c>
       <c r="S24">
-        <v>0.001901360566268809</v>
+        <v>6.141367800742144E-05</v>
       </c>
       <c r="T24">
-        <v>0.001602548851971449</v>
+        <v>7.902648529735242E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.05316166666666666</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N25">
-        <v>0.159485</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O25">
-        <v>0.007045618152102915</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P25">
-        <v>0.008640412403684879</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q25">
-        <v>1.333418945138333</v>
+        <v>187.2217056018516</v>
       </c>
       <c r="R25">
-        <v>8.000513670829999</v>
+        <v>1123.33023361111</v>
       </c>
       <c r="S25">
-        <v>0.0002415511557547364</v>
+        <v>0.02409317241848687</v>
       </c>
       <c r="T25">
-        <v>0.0002035897526300136</v>
+        <v>0.02066856328722128</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.255482</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N26">
-        <v>0.510964</v>
+        <v>0.114962</v>
       </c>
       <c r="O26">
-        <v>0.03385952189990702</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P26">
-        <v>0.02768247599107402</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q26">
-        <v>5.833184696113999</v>
+        <v>1.667120306153555</v>
       </c>
       <c r="R26">
-        <v>34.999108176684</v>
+        <v>15.004082755382</v>
       </c>
       <c r="S26">
-        <v>0.001056691529855984</v>
+        <v>0.0002145382494481504</v>
       </c>
       <c r="T26">
-        <v>0.0008906252859665403</v>
+        <v>0.0002760655991599327</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>595.65329</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.731042</v>
+        <v>0.534932</v>
       </c>
       <c r="N27">
-        <v>8.193125999999999</v>
+        <v>1.069864</v>
       </c>
       <c r="O27">
-        <v>0.3619502603258385</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P27">
-        <v>0.4438786563962321</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q27">
-        <v>62.355361234234</v>
+        <v>106.2113352420933</v>
       </c>
       <c r="R27">
-        <v>561.1982511081059</v>
+        <v>637.2680114525599</v>
       </c>
       <c r="S27">
-        <v>0.01129578189101755</v>
+        <v>0.01366811612232293</v>
       </c>
       <c r="T27">
-        <v>0.01428085968230618</v>
+        <v>0.01172532691770206</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>595.65329</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.164664</v>
+        <v>2.731042</v>
       </c>
       <c r="N28">
-        <v>0.493992</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O28">
-        <v>0.02182323730879784</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P28">
-        <v>0.02676298463254288</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q28">
-        <v>3.759621127128</v>
+        <v>542.2513841427267</v>
       </c>
       <c r="R28">
-        <v>33.836590144152</v>
+        <v>4880.26245728454</v>
       </c>
       <c r="S28">
-        <v>0.0006810618911399072</v>
+        <v>0.06978120432305612</v>
       </c>
       <c r="T28">
-        <v>0.0008610425906036103</v>
+        <v>0.08979373156581079</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>595.65329</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>3.922542</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N29">
-        <v>7.845084</v>
+        <v>0.032909</v>
       </c>
       <c r="O29">
-        <v>0.5198620519344028</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P29">
-        <v>0.4250227990190287</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q29">
-        <v>89.55978097973399</v>
+        <v>2.178039346734445</v>
       </c>
       <c r="R29">
-        <v>537.358685878404</v>
+        <v>19.60235412061</v>
       </c>
       <c r="S29">
-        <v>0.01622390973494943</v>
+        <v>0.0002802873595581777</v>
       </c>
       <c r="T29">
-        <v>0.01367421223595308</v>
+        <v>0.0003606708736200649</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>595.65329</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4184600000000001</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N30">
-        <v>1.25538</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O30">
-        <v>0.05545931037895075</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P30">
-        <v>0.06801267155743754</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q30">
-        <v>9.554310941420001</v>
+        <v>854.4656372604833</v>
       </c>
       <c r="R30">
-        <v>85.98879847278</v>
+        <v>5126.793823562899</v>
       </c>
       <c r="S30">
-        <v>0.001730780006354792</v>
+        <v>0.1099594080612065</v>
       </c>
       <c r="T30">
-        <v>0.002188164276733147</v>
+        <v>0.09432975222451713</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>595.65329</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.05316166666666666</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N31">
-        <v>0.159485</v>
+        <v>0.114962</v>
       </c>
       <c r="O31">
-        <v>0.007045618152102915</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P31">
-        <v>0.008640412403684879</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q31">
-        <v>1.213791266781666</v>
+        <v>7.608610391664444</v>
       </c>
       <c r="R31">
-        <v>10.924121401035</v>
+        <v>68.47749352497999</v>
       </c>
       <c r="S31">
-        <v>0.000219880394234012</v>
+        <v>0.0009791362675720084</v>
       </c>
       <c r="T31">
-        <v>0.0002779870474874427</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>48.737294</v>
-      </c>
-      <c r="H32">
-        <v>146.211882</v>
-      </c>
-      <c r="I32">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J32">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.255482</v>
-      </c>
-      <c r="N32">
-        <v>0.510964</v>
-      </c>
-      <c r="O32">
-        <v>0.03385952189990702</v>
-      </c>
-      <c r="P32">
-        <v>0.02768247599107402</v>
-      </c>
-      <c r="Q32">
-        <v>12.451501345708</v>
-      </c>
-      <c r="R32">
-        <v>74.709008074248</v>
-      </c>
-      <c r="S32">
-        <v>0.002255611075501404</v>
-      </c>
-      <c r="T32">
-        <v>0.001901126489980975</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>48.737294</v>
-      </c>
-      <c r="H33">
-        <v>146.211882</v>
-      </c>
-      <c r="I33">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J33">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.731042</v>
-      </c>
-      <c r="N33">
-        <v>8.193125999999999</v>
-      </c>
-      <c r="O33">
-        <v>0.3619502603258385</v>
-      </c>
-      <c r="P33">
-        <v>0.4438786563962321</v>
-      </c>
-      <c r="Q33">
-        <v>133.103596880348</v>
-      </c>
-      <c r="R33">
-        <v>1197.932371923132</v>
-      </c>
-      <c r="S33">
-        <v>0.02411194754565686</v>
-      </c>
-      <c r="T33">
-        <v>0.0304838870729677</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>48.737294</v>
-      </c>
-      <c r="H34">
-        <v>146.211882</v>
-      </c>
-      <c r="I34">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J34">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.164664</v>
-      </c>
-      <c r="N34">
-        <v>0.493992</v>
-      </c>
-      <c r="O34">
-        <v>0.02182323730879784</v>
-      </c>
-      <c r="P34">
-        <v>0.02676298463254288</v>
-      </c>
-      <c r="Q34">
-        <v>8.025277779215999</v>
-      </c>
-      <c r="R34">
-        <v>72.22750001294401</v>
-      </c>
-      <c r="S34">
-        <v>0.001453792995734976</v>
-      </c>
-      <c r="T34">
-        <v>0.001837979343043114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>48.737294</v>
-      </c>
-      <c r="H35">
-        <v>146.211882</v>
-      </c>
-      <c r="I35">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J35">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>3.922542</v>
-      </c>
-      <c r="N35">
-        <v>7.845084</v>
-      </c>
-      <c r="O35">
-        <v>0.5198620519344028</v>
-      </c>
-      <c r="P35">
-        <v>0.4250227990190287</v>
-      </c>
-      <c r="Q35">
-        <v>191.174082681348</v>
-      </c>
-      <c r="R35">
-        <v>1147.044496088088</v>
-      </c>
-      <c r="S35">
-        <v>0.03463151681652495</v>
-      </c>
-      <c r="T35">
-        <v>0.02918893896346104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>48.737294</v>
-      </c>
-      <c r="H36">
-        <v>146.211882</v>
-      </c>
-      <c r="I36">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J36">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.4184600000000001</v>
-      </c>
-      <c r="N36">
-        <v>1.25538</v>
-      </c>
-      <c r="O36">
-        <v>0.05545931037895075</v>
-      </c>
-      <c r="P36">
-        <v>0.06801267155743754</v>
-      </c>
-      <c r="Q36">
-        <v>20.39460804724</v>
-      </c>
-      <c r="R36">
-        <v>183.55147242516</v>
-      </c>
-      <c r="S36">
-        <v>0.003694518637924854</v>
-      </c>
-      <c r="T36">
-        <v>0.004670849948317918</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>48.737294</v>
-      </c>
-      <c r="H37">
-        <v>146.211882</v>
-      </c>
-      <c r="I37">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J37">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.05316166666666666</v>
-      </c>
-      <c r="N37">
-        <v>0.159485</v>
-      </c>
-      <c r="O37">
-        <v>0.007045618152102915</v>
-      </c>
-      <c r="P37">
-        <v>0.008640412403684879</v>
-      </c>
-      <c r="Q37">
-        <v>2.590955777863333</v>
-      </c>
-      <c r="R37">
-        <v>23.31860200077</v>
-      </c>
-      <c r="S37">
-        <v>0.0004693561351697854</v>
-      </c>
-      <c r="T37">
-        <v>0.0005933904507061472</v>
+        <v>0.001259942416150898</v>
       </c>
     </row>
   </sheetData>
